--- a/Budget/FB_for_BUD_2015.xlsx
+++ b/Budget/FB_for_BUD_2015.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>Start Date</t>
   </si>
@@ -81,6 +81,9 @@
     <t>#ekloges2015 - Page Likes</t>
   </si>
   <si>
+    <t>Android 4€ - App Engagement</t>
+  </si>
+  <si>
     <t>clickdelivery.gr - Page Likes</t>
   </si>
   <si>
@@ -90,22 +93,28 @@
     <t>Clickdelivery.gr IOS - App Installs</t>
   </si>
   <si>
+    <t>Post: "Απ' όλους εμάς στην #Clickdelivery !"</t>
+  </si>
+  <si>
     <t>Post: "Εμείς στις εκλογές..ψηφίζουμε προσφορές !!"</t>
   </si>
   <si>
+    <t>Post: "Χρόνια Πολλά στους ερωτευμένους ! #Valentinesday..."</t>
+  </si>
+  <si>
     <t>www.clickdelivery.gr/?utm_s... - Website Clicks</t>
   </si>
   <si>
     <t>www.clickdelivery.gr/?utm_s... - Website Clicks- #ekloges2015</t>
   </si>
   <si>
-    <t>Web</t>
-  </si>
-  <si>
     <t>Android</t>
   </si>
   <si>
     <t>ios</t>
+  </si>
+  <si>
+    <t>web</t>
   </si>
 </sst>
 </file>
@@ -113,7 +122,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="172" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -627,7 +636,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -960,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7:T9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1038,7 +1047,7 @@
         <v>42035</v>
       </c>
       <c r="C2" s="4">
-        <f>+MONTH(B2)</f>
+        <f t="shared" ref="C2:C16" si="0">+MONTH(B2)</f>
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1081,79 +1090,79 @@
         <v>0.115429</v>
       </c>
       <c r="Q2" s="5">
-        <v>2971</v>
+        <v>4058</v>
       </c>
       <c r="R2" s="5">
-        <v>2518</v>
+        <v>3255</v>
       </c>
       <c r="S2" s="5">
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B3" s="3">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3:C9" si="0">+MONTH(B3)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="5">
-        <v>2721</v>
+        <v>145035</v>
       </c>
       <c r="F3" s="6">
-        <v>1.0036750000000001</v>
+        <v>1.529631</v>
       </c>
       <c r="G3" s="5">
-        <v>2731</v>
+        <v>221850</v>
       </c>
       <c r="H3" s="5">
-        <v>39</v>
+        <v>1221</v>
       </c>
       <c r="I3" s="5">
-        <v>37</v>
+        <v>1147</v>
       </c>
       <c r="J3" s="6">
-        <v>1.428048</v>
+        <v>0.55037199999999997</v>
       </c>
       <c r="K3" s="6">
-        <v>1.3597939999999999</v>
+        <v>0.79084399999999999</v>
       </c>
       <c r="L3" s="6">
-        <v>6.96</v>
+        <v>167.54</v>
       </c>
       <c r="M3" s="6">
-        <v>2.5485169999999999</v>
+        <v>0.75519499999999995</v>
       </c>
       <c r="N3" s="6">
-        <v>2.5578829999999999</v>
+        <v>1.1551689999999999</v>
       </c>
       <c r="O3" s="6">
-        <v>0.17846200000000001</v>
+        <v>0.137215</v>
       </c>
       <c r="P3" s="6">
-        <v>0.188108</v>
+        <v>0.146068</v>
       </c>
       <c r="Q3" s="5">
-        <v>26</v>
+        <v>674</v>
       </c>
       <c r="R3" s="5">
-        <v>25</v>
+        <v>399</v>
       </c>
       <c r="S3" s="5">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -1168,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="5">
         <v>71267</v>
@@ -1207,79 +1216,79 @@
         <v>6.0790999999999998E-2</v>
       </c>
       <c r="Q4" s="5">
-        <v>3254</v>
+        <v>3738</v>
       </c>
       <c r="R4" s="5">
-        <v>2842</v>
+        <v>3193</v>
       </c>
       <c r="S4" s="5">
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B5" s="3">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="5">
-        <v>666533</v>
+        <v>76845</v>
       </c>
       <c r="F5" s="6">
-        <v>3.290467</v>
+        <v>1.480448</v>
       </c>
       <c r="G5" s="5">
-        <v>2193205</v>
+        <v>113765</v>
       </c>
       <c r="H5" s="5">
-        <v>15109</v>
+        <v>3347</v>
       </c>
       <c r="I5" s="5">
-        <v>13183</v>
+        <v>3209</v>
       </c>
       <c r="J5" s="6">
-        <v>0.68889999999999996</v>
+        <v>2.9420299999999999</v>
       </c>
       <c r="K5" s="6">
-        <v>1.9778469999999999</v>
+        <v>4.1759389999999996</v>
       </c>
       <c r="L5" s="6">
-        <v>2741.74</v>
+        <v>193.99</v>
       </c>
       <c r="M5" s="6">
-        <v>1.2501070000000001</v>
+        <v>1.705182</v>
       </c>
       <c r="N5" s="6">
-        <v>4.113435</v>
+        <v>2.524432</v>
       </c>
       <c r="O5" s="6">
-        <v>0.18146399999999999</v>
+        <v>5.7958999999999997E-2</v>
       </c>
       <c r="P5" s="6">
-        <v>0.20797499999999999</v>
+        <v>6.0451999999999999E-2</v>
       </c>
       <c r="Q5" s="5">
-        <v>11369</v>
+        <v>5069</v>
       </c>
       <c r="R5" s="5">
-        <v>7354</v>
+        <v>3764</v>
       </c>
       <c r="S5" s="5">
-        <v>3323</v>
+        <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -1294,118 +1303,118 @@
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="5">
-        <v>385174</v>
+        <v>2721</v>
       </c>
       <c r="F6" s="6">
-        <v>4.913081</v>
+        <v>1.0036750000000001</v>
       </c>
       <c r="G6" s="5">
-        <v>1892391</v>
+        <v>2731</v>
       </c>
       <c r="H6" s="5">
-        <v>7069</v>
+        <v>39</v>
       </c>
       <c r="I6" s="5">
-        <v>6251</v>
+        <v>37</v>
       </c>
       <c r="J6" s="6">
-        <v>0.37354900000000002</v>
+        <v>1.428048</v>
       </c>
       <c r="K6" s="6">
-        <v>1.622903</v>
+        <v>1.3597939999999999</v>
       </c>
       <c r="L6" s="6">
-        <v>2728.33</v>
+        <v>6.96</v>
       </c>
       <c r="M6" s="6">
-        <v>1.441737</v>
+        <v>2.5485169999999999</v>
       </c>
       <c r="N6" s="6">
-        <v>7.0833700000000004</v>
+        <v>2.5578829999999999</v>
       </c>
       <c r="O6" s="6">
-        <v>0.38595699999999999</v>
+        <v>0.17846200000000001</v>
       </c>
       <c r="P6" s="6">
-        <v>0.43646299999999999</v>
+        <v>0.188108</v>
       </c>
       <c r="Q6" s="5">
-        <v>8754</v>
+        <v>38</v>
       </c>
       <c r="R6" s="5">
-        <v>5183</v>
+        <v>37</v>
       </c>
       <c r="S6" s="5">
-        <v>2376</v>
+        <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B7" s="3">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="5">
-        <v>521571</v>
+        <v>948421</v>
       </c>
       <c r="F7" s="6">
-        <v>2.3251010000000001</v>
+        <v>5.0018190000000002</v>
       </c>
       <c r="G7" s="5">
-        <v>1212705</v>
+        <v>4743830</v>
       </c>
       <c r="H7" s="5">
-        <v>3663</v>
+        <v>25489</v>
       </c>
       <c r="I7" s="5">
-        <v>3345</v>
+        <v>21841</v>
       </c>
       <c r="J7" s="6">
-        <v>0.30205199999999999</v>
+        <v>0.53730800000000001</v>
       </c>
       <c r="K7" s="6">
-        <v>0.64133200000000001</v>
+        <v>2.30288</v>
       </c>
       <c r="L7" s="6">
-        <v>489.78</v>
+        <v>6694.31</v>
       </c>
       <c r="M7" s="6">
-        <v>0.40387400000000001</v>
+        <v>1.4111610000000001</v>
       </c>
       <c r="N7" s="6">
-        <v>0.93904799999999999</v>
+        <v>7.0583739999999997</v>
       </c>
       <c r="O7" s="6">
-        <v>0.13371</v>
+        <v>0.26263500000000001</v>
       </c>
       <c r="P7" s="6">
-        <v>0.146422</v>
+        <v>0.306502</v>
       </c>
       <c r="Q7" s="5">
-        <v>1706</v>
+        <v>16221</v>
       </c>
       <c r="R7" s="5">
-        <v>1620</v>
+        <v>10531</v>
       </c>
       <c r="S7" s="5">
-        <v>0</v>
+        <v>4511</v>
       </c>
       <c r="T7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -1420,55 +1429,55 @@
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="5">
-        <v>264</v>
+        <v>666533</v>
       </c>
       <c r="F8" s="6">
-        <v>1.0340910000000001</v>
+        <v>3.290467</v>
       </c>
       <c r="G8" s="5">
-        <v>273</v>
+        <v>2193205</v>
       </c>
       <c r="H8" s="5">
-        <v>6</v>
+        <v>15109</v>
       </c>
       <c r="I8" s="5">
-        <v>5</v>
+        <v>13183</v>
       </c>
       <c r="J8" s="6">
-        <v>2.1978019999999998</v>
+        <v>0.68889999999999996</v>
       </c>
       <c r="K8" s="6">
-        <v>1.893939</v>
+        <v>1.9778469999999999</v>
       </c>
       <c r="L8" s="6">
-        <v>0.37</v>
+        <v>2741.74</v>
       </c>
       <c r="M8" s="6">
-        <v>1.3553109999999999</v>
+        <v>1.2501070000000001</v>
       </c>
       <c r="N8" s="6">
-        <v>1.4015150000000001</v>
+        <v>4.113435</v>
       </c>
       <c r="O8" s="6">
-        <v>6.1667E-2</v>
+        <v>0.18146399999999999</v>
       </c>
       <c r="P8" s="6">
-        <v>7.3999999999999996E-2</v>
+        <v>0.20797499999999999</v>
       </c>
       <c r="Q8" s="5">
-        <v>4</v>
+        <v>12656</v>
       </c>
       <c r="R8" s="5">
-        <v>3</v>
+        <v>7442</v>
       </c>
       <c r="S8" s="5">
-        <v>0</v>
+        <v>3370</v>
       </c>
       <c r="T8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -1483,55 +1492,496 @@
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5">
+        <v>385174</v>
+      </c>
+      <c r="F9" s="6">
+        <v>4.913081</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1892391</v>
+      </c>
+      <c r="H9" s="5">
+        <v>7069</v>
+      </c>
+      <c r="I9" s="5">
+        <v>6251</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.37354900000000002</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1.622903</v>
+      </c>
+      <c r="L9" s="6">
+        <v>2728.33</v>
+      </c>
+      <c r="M9" s="6">
+        <v>1.441737</v>
+      </c>
+      <c r="N9" s="6">
+        <v>7.0833700000000004</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0.38595699999999999</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0.43646299999999999</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>9723</v>
+      </c>
+      <c r="R9" s="5">
+        <v>5253</v>
+      </c>
+      <c r="S9" s="5">
+        <v>2417</v>
+      </c>
+      <c r="T9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>42036</v>
+      </c>
+      <c r="B10" s="3">
+        <v>42063</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="5">
+        <v>436277</v>
+      </c>
+      <c r="F10" s="6">
+        <v>9.316001</v>
+      </c>
+      <c r="G10" s="5">
+        <v>4064357</v>
+      </c>
+      <c r="H10" s="5">
+        <v>9530</v>
+      </c>
+      <c r="I10" s="5">
+        <v>8637</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.23447699999999999</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1.979706</v>
+      </c>
+      <c r="L10" s="6">
+        <v>4779.12</v>
+      </c>
+      <c r="M10" s="6">
+        <v>1.175861</v>
+      </c>
+      <c r="N10" s="6">
+        <v>10.954325000000001</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0.50148199999999998</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0.55333100000000002</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>8720</v>
+      </c>
+      <c r="R10" s="5">
+        <v>5095</v>
+      </c>
+      <c r="S10" s="5">
+        <v>2216</v>
+      </c>
+      <c r="T10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>42036</v>
+      </c>
+      <c r="B11" s="3">
+        <v>42063</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="5">
+        <v>22163</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1.018003</v>
+      </c>
+      <c r="G11" s="5">
+        <v>22562</v>
+      </c>
+      <c r="H11" s="5">
+        <v>663</v>
+      </c>
+      <c r="I11" s="5">
+        <v>613</v>
+      </c>
+      <c r="J11" s="6">
+        <v>2.9385690000000002</v>
+      </c>
+      <c r="K11" s="6">
+        <v>2.7658710000000002</v>
+      </c>
+      <c r="L11" s="6">
+        <v>15.61</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0.69187100000000001</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0.70432700000000004</v>
+      </c>
+      <c r="O11" s="6">
+        <v>2.3543999999999999E-2</v>
+      </c>
+      <c r="P11" s="6">
+        <v>2.5465000000000002E-2</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>570</v>
+      </c>
+      <c r="R11" s="5">
+        <v>540</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>42005</v>
+      </c>
+      <c r="B12" s="3">
+        <v>42035</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E12" s="5">
+        <v>521571</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2.3251010000000001</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1212705</v>
+      </c>
+      <c r="H12" s="5">
+        <v>3663</v>
+      </c>
+      <c r="I12" s="5">
+        <v>3345</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0.30205199999999999</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0.64133200000000001</v>
+      </c>
+      <c r="L12" s="6">
+        <v>489.78</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0.40387400000000001</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0.93904799999999999</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0.13371</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0.146422</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>1706</v>
+      </c>
+      <c r="R12" s="5">
+        <v>1620</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>42036</v>
+      </c>
+      <c r="B13" s="3">
+        <v>42063</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="5">
+        <v>14521</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1.042559</v>
+      </c>
+      <c r="G13" s="5">
+        <v>15139</v>
+      </c>
+      <c r="H13" s="5">
+        <v>323</v>
+      </c>
+      <c r="I13" s="5">
+        <v>289</v>
+      </c>
+      <c r="J13" s="6">
+        <v>2.133562</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1.990221</v>
+      </c>
+      <c r="L13" s="6">
+        <v>10.34</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0.68300399999999994</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0.71207200000000004</v>
+      </c>
+      <c r="O13" s="6">
+        <v>3.2011999999999999E-2</v>
+      </c>
+      <c r="P13" s="6">
+        <v>3.5778999999999998E-2</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>290</v>
+      </c>
+      <c r="R13" s="5">
+        <v>275</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>42005</v>
+      </c>
+      <c r="B14" s="3">
+        <v>42035</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="5">
+        <v>264</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1.0340910000000001</v>
+      </c>
+      <c r="G14" s="5">
+        <v>273</v>
+      </c>
+      <c r="H14" s="5">
+        <v>6</v>
+      </c>
+      <c r="I14" s="5">
+        <v>5</v>
+      </c>
+      <c r="J14" s="6">
+        <v>2.1978019999999998</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1.893939</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1.3553109999999999</v>
+      </c>
+      <c r="N14" s="6">
+        <v>1.4015150000000001</v>
+      </c>
+      <c r="O14" s="6">
+        <v>6.1667E-2</v>
+      </c>
+      <c r="P14" s="6">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>4</v>
+      </c>
+      <c r="R14" s="5">
+        <v>3</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>42005</v>
+      </c>
+      <c r="B15" s="3">
+        <v>42035</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="5">
         <v>892665</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F15" s="6">
         <v>6.4374859999999998</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G15" s="5">
         <v>5746518</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H15" s="5">
         <v>10051</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I15" s="5">
         <v>8385</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J15" s="6">
         <v>0.17490600000000001</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K15" s="6">
         <v>0.93932199999999999</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L15" s="6">
         <v>753.85</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M15" s="6">
         <v>0.131184</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N15" s="6">
         <v>0.84449399999999997</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O15" s="6">
         <v>7.5001999999999999E-2</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P15" s="6">
         <v>8.9904999999999999E-2</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q15" s="5">
         <v>8026</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R15" s="5">
         <v>7491</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S15" s="5">
         <v>0</v>
       </c>
-      <c r="T9" t="s">
-        <v>26</v>
+      <c r="T15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>42036</v>
+      </c>
+      <c r="B16" s="3">
+        <v>42063</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="5">
+        <v>930970</v>
+      </c>
+      <c r="F16" s="6">
+        <v>8.1716689999999996</v>
+      </c>
+      <c r="G16" s="5">
+        <v>7607579</v>
+      </c>
+      <c r="H16" s="5">
+        <v>10536</v>
+      </c>
+      <c r="I16" s="5">
+        <v>8812</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.138493</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0.94654000000000005</v>
+      </c>
+      <c r="L16" s="6">
+        <v>795.82</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0.10460899999999999</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0.85482899999999995</v>
+      </c>
+      <c r="O16" s="6">
+        <v>7.5533000000000003E-2</v>
+      </c>
+      <c r="P16" s="6">
+        <v>9.0311000000000002E-2</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>9572</v>
+      </c>
+      <c r="R16" s="5">
+        <v>8644</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
